--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed3/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.837999999999999</v>
+        <v>-7.883</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>6.467000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.630000000000001</v>
+        <v>6.484</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.74</v>
+        <v>5.553</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.720000000000001</v>
+        <v>-6.985000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.184000000000001</v>
+        <v>-8.312000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.233999999999998</v>
+        <v>-8.126999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.173999999999999</v>
+        <v>-7.194999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.975999999999999</v>
+        <v>-7.923999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.975999999999999</v>
+        <v>-8.002000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -950,13 +950,13 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.01</v>
+        <v>8.882000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.996</v>
+        <v>-7.900999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.026</v>
+        <v>-7.568</v>
       </c>
     </row>
     <row r="48">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.676</v>
+        <v>4.722</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.026</v>
+        <v>-7.659000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.552</v>
+        <v>5.084999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.414</v>
+        <v>-8.023</v>
       </c>
     </row>
     <row r="74">
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.132000000000001</v>
+        <v>5.766</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.1</v>
+        <v>7.507000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.932</v>
+        <v>6.439</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.457</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.239999999999998</v>
+        <v>-8.235000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.73</v>
+        <v>-8.574</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.176</v>
+        <v>-7.007000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.738000000000001</v>
+        <v>-7.558</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.52</v>
+        <v>-7.231</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.272</v>
+        <v>-8.269000000000002</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.539999999999999</v>
+        <v>-7.834000000000001</v>
       </c>
     </row>
     <row r="102">
